--- a/gallery.xlsx
+++ b/gallery.xlsx
@@ -11,28 +11,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Images</t>
   </si>
   <si>
-    <t>https://candid.s3-ap-southeast-2.amazonaws.com/c1.jpg</t>
+    <t>https://candid.s3.ap-southeast-2.amazonaws.com/gallery-3.jpg</t>
   </si>
   <si>
-    <t>https://candid.s3-ap-southeast-2.amazonaws.com/c2.jpg</t>
+    <t>https://candid.s3.ap-southeast-2.amazonaws.com/gallery-2.jpg</t>
   </si>
   <si>
-    <t>https://candid.s3-ap-southeast-2.amazonaws.com/c3.jpg</t>
-  </si>
-  <si>
-    <t>https://candid.s3-ap-southeast-2.amazonaws.com/c4.jpg</t>
+    <t>https://candid.s3.ap-southeast-2.amazonaws.com/gallery-1.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -46,7 +43,12 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF1155CC"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -69,7 +71,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -80,7 +82,10 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -315,7 +320,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -325,17 +330,14 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A2"/>
     <hyperlink r:id="rId2" ref="A3"/>
     <hyperlink r:id="rId3" ref="A4"/>
-    <hyperlink r:id="rId4" ref="A5"/>
   </hyperlinks>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>